--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-19T15:05:14+00:00</t>
+    <t>2023-05-22T15:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-22T15:13:14+00:00</t>
+    <t>2023-05-25T14:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T14:53:20+00:00</t>
+    <t>2023-05-25T15:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T15:21:54+00:00</t>
+    <t>2023-05-25T16:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T16:53:44+00:00</t>
+    <t>2023-05-26T07:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T07:32:07+00:00</t>
+    <t>2023-05-26T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T07:55:08+00:00</t>
+    <t>2023-05-30T07:43:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T07:43:31+00:00</t>
+    <t>2023-05-30T07:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T07:52:10+00:00</t>
+    <t>2023-05-30T10:55:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T10:55:03+00:00</t>
+    <t>2023-05-30T13:48:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T18:04:52+00:00</t>
+    <t>2023-10-05T14:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:03:16+00:00</t>
+    <t>2023-10-05T14:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:18:17+00:00</t>
+    <t>2023-10-05T14:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:35:20+00:00</t>
+    <t>2023-10-05T14:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:43:15+00:00</t>
+    <t>2023-10-05T14:49:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/all-profiles.xlsx
+++ b/r5-LinkedCare-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:49:24+00:00</t>
+    <t>2023-10-05T14:58:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
